--- a/biology/Zoologie/Archips/Archips.xlsx
+++ b/biology/Zoologie/Archips/Archips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archips est un genre de Lépidoptères de la famille des Tortricidae, comprenant plus d'une centaine d'espèces réparties dans une grande partie du monde excepté l'Amérique du Sud[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archips est un genre de Lépidoptères de la famille des Tortricidae, comprenant plus d'une centaine d'espèces réparties dans une grande partie du monde excepté l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce genre est Archips, choisi par l'entomologiste bavarois Jacob Hübner, en 1822[2]
-Archips a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce genre est Archips, choisi par l'entomologiste bavarois Jacob Hübner, en 1822
+Archips a pour synonymes :
 Cacoecia Hübner, 1825
 Pararchips Kuznetzov, 1970</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (25 octobre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (25 octobre 2021) :
 Archips abiephaga Yasuda, 1975
 Archips abscisana Zeller, 1877
 Archips aequiflexa Meyrick, 1931
